--- a/InputData/dist-heat/BFoHfC/BAU Fraction of Heat from CHP.xlsx
+++ b/InputData/dist-heat/BFoHfC/BAU Fraction of Heat from CHP.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\dist-heat\BFoHfC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="45" windowWidth="23955" windowHeight="11310"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="BFoHfC" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>BFoHfC BAU Fraction of Heat from CHP</t>
   </si>
@@ -87,12 +92,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>We do not have data on how CHP fraction varies by fuel type,</t>
-  </si>
-  <si>
-    <t>so we assume the overall CHP fraction applies to all fuel types.</t>
-  </si>
-  <si>
     <t>It does not matter if some of these fuel types are not used</t>
   </si>
   <si>
@@ -100,12 +99,36 @@
   </si>
   <si>
     <t>governed by another input variable.</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>LPG propane or butane</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
+  </si>
+  <si>
+    <t>We do not have data on how Combined Heat and Power (CHP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fraction varies by fuel type.</t>
+  </si>
+  <si>
+    <t>So we assume the overall CHP fraction applies to all fuel types.</t>
+  </si>
+  <si>
+    <t>Fraction of Heat from CHP (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -178,9 +201,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -197,6 +222,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -245,7 +273,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,7 +308,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -489,9 +517,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -538,27 +568,32 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -659,121 +694,123 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK7"/>
+  <dimension ref="A1:AK11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8">
+    <row r="1" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="7">
         <v>2015</v>
       </c>
       <c r="C1">
         <v>2016</v>
       </c>
-      <c r="D1" s="8">
+      <c r="D1" s="7">
         <v>2017</v>
       </c>
       <c r="E1">
         <v>2018</v>
       </c>
-      <c r="F1" s="8">
+      <c r="F1" s="7">
         <v>2019</v>
       </c>
       <c r="G1">
         <v>2020</v>
       </c>
-      <c r="H1" s="8">
+      <c r="H1" s="7">
         <v>2021</v>
       </c>
       <c r="I1">
         <v>2022</v>
       </c>
-      <c r="J1" s="8">
+      <c r="J1" s="7">
         <v>2023</v>
       </c>
       <c r="K1">
         <v>2024</v>
       </c>
-      <c r="L1" s="8">
+      <c r="L1" s="7">
         <v>2025</v>
       </c>
       <c r="M1">
         <v>2026</v>
       </c>
-      <c r="N1" s="8">
+      <c r="N1" s="7">
         <v>2027</v>
       </c>
       <c r="O1">
         <v>2028</v>
       </c>
-      <c r="P1" s="8">
+      <c r="P1" s="7">
         <v>2029</v>
       </c>
       <c r="Q1">
         <v>2030</v>
       </c>
-      <c r="R1" s="8">
+      <c r="R1" s="7">
         <v>2031</v>
       </c>
       <c r="S1">
         <v>2032</v>
       </c>
-      <c r="T1" s="8">
+      <c r="T1" s="7">
         <v>2033</v>
       </c>
       <c r="U1">
         <v>2034</v>
       </c>
-      <c r="V1" s="8">
+      <c r="V1" s="7">
         <v>2035</v>
       </c>
       <c r="W1">
         <v>2036</v>
       </c>
-      <c r="X1" s="8">
+      <c r="X1" s="7">
         <v>2037</v>
       </c>
       <c r="Y1">
         <v>2038</v>
       </c>
-      <c r="Z1" s="8">
+      <c r="Z1" s="7">
         <v>2039</v>
       </c>
       <c r="AA1">
         <v>2040</v>
       </c>
-      <c r="AB1" s="8">
+      <c r="AB1" s="7">
         <v>2041</v>
       </c>
       <c r="AC1">
         <v>2042</v>
       </c>
-      <c r="AD1" s="8">
+      <c r="AD1" s="7">
         <v>2043</v>
       </c>
       <c r="AE1">
         <v>2044</v>
       </c>
-      <c r="AF1" s="8">
+      <c r="AF1" s="7">
         <v>2045</v>
       </c>
       <c r="AG1">
         <v>2046</v>
       </c>
-      <c r="AH1" s="8">
+      <c r="AH1" s="7">
         <v>2047</v>
       </c>
       <c r="AI1">
         <v>2048</v>
       </c>
-      <c r="AJ1" s="8">
+      <c r="AJ1" s="7">
         <v>2049</v>
       </c>
       <c r="AK1">
@@ -1670,6 +1707,602 @@
         <v>0.50623017079495658</v>
       </c>
       <c r="AK7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="C8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="D8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="E8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="F8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="G8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="H8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="I8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="J8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="K8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="L8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="M8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="N8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="O8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="P8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Q8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="R8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="S8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="T8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="U8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="V8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="W8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="X8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Y8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Z8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AA8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AB8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AC8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AD8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AE8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AF8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AG8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AH8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AI8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AJ8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AK8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="C9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="D9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="E9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="F9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="G9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="H9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="I9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="J9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="K9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="L9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="M9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="N9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="O9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="P9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Q9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="R9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="S9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="T9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="U9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="V9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="W9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="X9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Y9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Z9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AA9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AB9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AC9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AD9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AE9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AF9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AG9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AH9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AI9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AJ9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AK9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="C10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="D10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="E10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="F10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="G10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="H10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="I10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="J10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="K10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="L10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="M10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="N10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="O10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="P10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Q10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="R10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="S10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="T10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="U10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="V10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="W10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="X10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Y10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Z10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AA10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AB10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AC10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AD10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AE10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AF10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AG10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AH10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AI10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AJ10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AK10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="C11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="D11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="E11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="F11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="G11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="H11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="I11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="J11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="K11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="L11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="M11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="N11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="O11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="P11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Q11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="R11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="S11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="T11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="U11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="V11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="W11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="X11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Y11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Z11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AA11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AB11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AC11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AD11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AE11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AF11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AG11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AH11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AI11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AJ11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AK11">
         <f>Data!$A$6</f>
         <v>0.50623017079495658</v>
       </c>
